--- a/biology/Neurosciences/Ganglion_otique/Ganglion_otique.xlsx
+++ b/biology/Neurosciences/Ganglion_otique/Ganglion_otique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion otique ou ganglion auriculaire est un petit ganglion de forme ovoïde, aplati, appartenant au système parasympathique, de couleur rouge grisé, situé immédiatement au-dessous du foramen ovale dans la fosse infratemporale sur la face médiale du nerf mandibulaire.
 C'est l'un des quatre ganglions parasympathiques de la tête et du cou. (Les autres sont les  ganglions submandibulaire, ptérygopalatin et ciliaire).
